--- a/hands-on-1/Results.xlsx
+++ b/hands-on-1/Results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\IAA\Hands-on 1\entrega\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\IAA\hands-on-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D73937-5883-4FF9-A3BF-8FDE3B3CF2E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AB437D-F7D4-4A87-B6D3-B2A5F5844DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="17">
   <si>
     <t>Heurística</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>Plan Length</t>
+  </si>
+  <si>
+    <t>Domínios</t>
+  </si>
+  <si>
+    <t>Resultados dos Testes</t>
   </si>
 </sst>
 </file>
@@ -72,11 +78,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00000"/>
-    <numFmt numFmtId="168" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,16 +96,43 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -109,84 +142,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -194,11 +159,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -208,43 +170,37 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -552,377 +508,392 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G2" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C3" s="6">
         <v>0.253222</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D3" s="5">
         <v>8807</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E3" s="5">
         <v>2753</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F3" s="5">
         <v>241</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G3" s="5">
         <v>241</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="5" t="s">
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C4" s="6">
         <v>0.221466</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D4" s="5">
         <v>5307</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E4" s="5">
         <v>1443</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F4" s="5">
         <v>187</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G4" s="5">
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="5" t="s">
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C6" s="7">
         <v>0.29992999999999997</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D6" s="5">
         <v>11106</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E6" s="5">
         <v>3550</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F6" s="5">
         <v>268</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G6" s="5">
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="5" t="s">
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C7" s="7">
         <v>0.44401000000000002</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D7" s="5">
         <v>21551</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E7" s="5">
         <v>6059</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F7" s="5">
         <v>496</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G7" s="5">
         <v>349</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="5" t="s">
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C9" s="7">
         <v>5.6216400000000002</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D9" s="5">
         <v>634659</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E9" s="5">
         <v>229858</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F9" s="5">
         <v>589</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G9" s="5">
         <v>589</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="5" t="s">
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C10" s="8">
         <v>46.096200000000003</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D10" s="5">
         <v>5926523</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E10" s="5">
         <v>2005642</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F10" s="5">
         <v>657</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G10" s="5">
         <v>657</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="5" t="s">
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="C11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C12" s="6">
         <v>0.16960900000000001</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D12" s="5">
         <v>602</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E12" s="5">
         <v>23</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F12" s="5">
         <v>22</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G12" s="5">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="5" t="s">
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C13" s="6">
         <v>0.249082</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D13" s="5">
         <v>1224</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E13" s="5">
         <v>23</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F13" s="5">
         <v>22</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G13" s="5">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="5" t="s">
+    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="C14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C15" s="6">
         <v>0.19391700000000001</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D15" s="5">
         <v>2175</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E15" s="5">
         <v>183</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F15" s="5">
         <v>37</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G15" s="5">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="5" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C16" s="6">
         <v>0.188915</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D16" s="5">
         <v>685</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E16" s="5">
         <v>57</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F16" s="5">
         <v>36</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G16" s="5">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="5" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="C17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
+  <mergeCells count="6">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>